--- a/public/spritesheets/dunkbin_backlog.xlsx
+++ b/public/spritesheets/dunkbin_backlog.xlsx
@@ -417,33 +417,15 @@
         <v>stdout</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
+    <row r="2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="str" xml:space="preserve">
-        <v xml:space="preserve">hint: Pulling without specifying how to reconcile divergent branches is
-hint: discouraged. You can squelch this message by running one of the following
-hint: commands sometime before your next pull:
-hint: 
-hint:   git config pull.rebase false  # merge (the default strategy)
-hint:   git config pull.rebase true   # rebase
-hint:   git config pull.ff only       # fast-forward only
-hint: 
-hint: You can replace "git config" with "git config --global" to set a default
-hint: preference for all repositories. You can also pass --rebase, --no-rebase,
-hint: or --ff-only on the command line to override the configured default per
-hint: invocation.</v>
-      </c>
-      <c r="C2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Already up to date.
-On branch main
-Your branch is up to date with 'origin/main'.
-Changes not staged for commit:
-  (use "git add &lt;file&gt;..." to update what will be committed)
-  (use "git restore &lt;file&gt;..." to discard changes in working directory)
-	modified:   public/spritesheets/dunkbin_backlog.xlsx
-no changes added to commit (use "git add" and/or "git commit -a")</v>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v>5237938ceb8907ff563b787544e65339</v>
       </c>
     </row>
   </sheetData>

--- a/public/spritesheets/dunkbin_backlog.xlsx
+++ b/public/spritesheets/dunkbin_backlog.xlsx
@@ -425,7 +425,7 @@
         <v/>
       </c>
       <c r="C2" t="str">
-        <v>5237938ceb8907ff563b787544e65339</v>
+        <v>8a2b4c67de6d42f6d2e1cd3cbf8af101</v>
       </c>
     </row>
   </sheetData>
